--- a/lib/tasks/DiknasConversion.xlsx
+++ b/lib/tasks/DiknasConversion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
   <si>
     <t>AGAMA</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>semester</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -122,11 +125,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D33"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,7 +418,10 @@
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -432,9 +435,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -448,27 +451,39 @@
       <c r="E2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -482,10 +497,16 @@
       <c r="E4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -499,10 +520,16 @@
       <c r="E5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -516,10 +543,16 @@
       <c r="E6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -533,10 +566,16 @@
       <c r="E7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -550,10 +589,16 @@
       <c r="E8">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -567,10 +612,16 @@
       <c r="E9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -584,10 +635,16 @@
       <c r="E10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -601,27 +658,39 @@
       <c r="E11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -635,10 +704,16 @@
       <c r="E13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -652,10 +727,16 @@
       <c r="E14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -669,27 +750,39 @@
       <c r="E15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>23</v>
+      </c>
+      <c r="G15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -703,10 +796,16 @@
       <c r="E17">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -720,27 +819,39 @@
       <c r="E18">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>26</v>
+      </c>
+      <c r="G18">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -754,10 +865,16 @@
       <c r="E20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>28</v>
+      </c>
+      <c r="G20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -771,10 +888,16 @@
       <c r="E21">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>29</v>
+      </c>
+      <c r="G21">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -788,10 +911,16 @@
       <c r="E22">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -805,10 +934,16 @@
       <c r="E23">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>31</v>
+      </c>
+      <c r="G23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -822,10 +957,16 @@
       <c r="E24">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -839,10 +980,16 @@
       <c r="E25">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>33</v>
+      </c>
+      <c r="G25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -856,10 +1003,16 @@
       <c r="E26">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>34</v>
+      </c>
+      <c r="G26">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -873,27 +1026,39 @@
       <c r="E27">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>35</v>
+      </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28">
         <v>36</v>
       </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -907,10 +1072,16 @@
       <c r="E29">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>37</v>
+      </c>
+      <c r="G29">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
@@ -924,10 +1095,16 @@
       <c r="E30">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>38</v>
+      </c>
+      <c r="G30">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -941,27 +1118,39 @@
       <c r="E31">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>39</v>
+      </c>
+      <c r="G31">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>12</v>
+      </c>
+      <c r="F32">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
@@ -975,9 +1164,12 @@
       <c r="E33">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F46" s="1"/>
+      <c r="F33">
+        <v>41</v>
+      </c>
+      <c r="G33">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B1:B31">
